--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T20:13:04+10:00</t>
+    <t>2024-10-09T15:19:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
